--- a/2021年D题第4问/第四问结果.xlsx
+++ b/2021年D题第4问/第四问结果.xlsx
@@ -510,64 +510,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>-18.19560912459946</v>
+        <v>-16.3836297886486</v>
       </c>
       <c r="C2">
-        <v>0.007592872981156318</v>
+        <v>0.004331435221505973</v>
       </c>
       <c r="D2">
-        <v>-5.851107329573871</v>
+        <v>-5.799463029004801</v>
       </c>
       <c r="E2">
-        <v>0.01561169409798423</v>
+        <v>0.007794759393625822</v>
       </c>
       <c r="F2">
-        <v>-0.8871839706315652</v>
+        <v>-0.8169680753306392</v>
       </c>
       <c r="G2">
-        <v>0.01856042956116522</v>
+        <v>0.107718336700698</v>
       </c>
       <c r="H2">
-        <v>0.007980147608584939</v>
+        <v>0.006556057438507702</v>
       </c>
       <c r="I2">
-        <v>-42.49585512889688</v>
+        <v>-34.90369280452697</v>
       </c>
       <c r="J2">
-        <v>-1793.686074064021</v>
+        <v>-1912.486741397749</v>
       </c>
       <c r="K2">
-        <v>-36.42470713333763</v>
+        <v>-37.4918571536846</v>
       </c>
       <c r="L2">
-        <v>-23.51660922349713</v>
+        <v>-23.63373630169103</v>
       </c>
       <c r="M2">
-        <v>-26.74812897187919</v>
+        <v>-25.24707970345863</v>
       </c>
       <c r="N2">
-        <v>-41.05494447156316</v>
+        <v>-39.93808252654229</v>
       </c>
       <c r="O2">
-        <v>-0.02679776427883487</v>
+        <v>-0.05006477518943293</v>
       </c>
       <c r="P2">
-        <v>0.1788616721522905</v>
+        <v>4.986200252294055</v>
       </c>
       <c r="Q2">
-        <v>13.84556440050669</v>
+        <v>13.88711458392088</v>
       </c>
       <c r="R2">
-        <v>0.238488411627571</v>
+        <v>0.2361000522202645</v>
       </c>
       <c r="S2">
-        <v>1.912879329070621</v>
+        <v>1.921552559199232</v>
       </c>
       <c r="T2">
-        <v>1.376273941096899</v>
+        <v>1.376237419531808</v>
       </c>
       <c r="U2">
-        <v>0.2031369525061904</v>
+        <v>0.2035101889102655</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -575,64 +575,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>30.16234775801437</v>
+        <v>30.30123545224006</v>
       </c>
       <c r="C3">
-        <v>0.4518659502741246</v>
+        <v>0.4672931548961672</v>
       </c>
       <c r="D3">
-        <v>5.644296856258411</v>
+        <v>5.822005901139912</v>
       </c>
       <c r="E3">
-        <v>0.4974254051853654</v>
+        <v>0.4882476542702427</v>
       </c>
       <c r="F3">
-        <v>7.452522950419237</v>
+        <v>7.474719314087883</v>
       </c>
       <c r="G3">
-        <v>10.45503970380419</v>
+        <v>10.18837487138916</v>
       </c>
       <c r="H3">
-        <v>0.4691185921933257</v>
+        <v>0.4835715554131489</v>
       </c>
       <c r="I3">
-        <v>57.28794059851523</v>
+        <v>59.6580477615004</v>
       </c>
       <c r="J3">
-        <v>1924.45791195514</v>
+        <v>1967.310365173594</v>
       </c>
       <c r="K3">
-        <v>48.42671933400274</v>
+        <v>50.3131662951547</v>
       </c>
       <c r="L3">
-        <v>32.10185322649335</v>
+        <v>31.41870910590762</v>
       </c>
       <c r="M3">
-        <v>33.88067176661028</v>
+        <v>34.0440834060716</v>
       </c>
       <c r="N3">
-        <v>60.48479948502391</v>
+        <v>61.24606163008038</v>
       </c>
       <c r="O3">
-        <v>1.432252520132318</v>
+        <v>1.401549991919253</v>
       </c>
       <c r="P3">
-        <v>91.99583815979456</v>
+        <v>92.91027896720207</v>
       </c>
       <c r="Q3">
-        <v>15.7960527250872</v>
+        <v>15.86603432783468</v>
       </c>
       <c r="R3">
-        <v>0.73993867000907</v>
+        <v>0.723870260745481</v>
       </c>
       <c r="S3">
-        <v>2.056540630557258</v>
+        <v>2.055771317746034</v>
       </c>
       <c r="T3">
-        <v>1.387817173112757</v>
+        <v>1.387829855054908</v>
       </c>
       <c r="U3">
-        <v>0.2528941065728373</v>
+        <v>0.249318340684922</v>
       </c>
     </row>
   </sheetData>
